--- a/data/data_configuration.xlsx
+++ b/data/data_configuration.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet2!$A$1:$I$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet2!$A$1:$I$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet2!$A$1:$I$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet2!$A$1:$I$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
   <si>
     <t xml:space="preserve">ColumnName</t>
   </si>
@@ -86,6 +86,12 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contactDatum</t>
+  </si>
+  <si>
     <t xml:space="preserve">voornaam</t>
   </si>
   <si>
@@ -129,9 +135,6 @@
   </si>
   <si>
     <t xml:space="preserve">heeftInteresses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -147,7 +150,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;BOOL&quot;e&quot;AN&quot;"/>
-    <numFmt numFmtId="166" formatCode="&quot;WAAR&quot;;&quot;WAAR&quot;;&quot;ONWAAR&quot;"/>
+    <numFmt numFmtId="166" formatCode="&quot;BOOL&quot;e&quot;AN&quot;"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -395,7 +398,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -542,10 +545,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
@@ -569,13 +572,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -602,7 +605,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -654,8 +657,8 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H8" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -710,7 +713,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -720,8 +723,8 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H10" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -743,7 +746,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
@@ -753,8 +756,8 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H11" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -767,16 +770,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>13</v>
@@ -786,8 +789,8 @@
         <v>0</v>
       </c>
       <c r="G12" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H12" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -803,13 +806,13 @@
         <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>13</v>
@@ -833,7 +836,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
@@ -842,7 +845,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>13</v>
@@ -866,16 +869,16 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>13</v>
@@ -899,16 +902,16 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>13</v>
@@ -932,16 +935,16 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>13</v>
@@ -965,16 +968,16 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
@@ -997,15 +1000,37 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
@@ -1057,10 +1082,10 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
@@ -1073,16 +1098,16 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
@@ -1293,7 +1318,17 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
     <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data/data_configuration.xlsx
+++ b/data/data_configuration.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t xml:space="preserve">ColumnName</t>
   </si>
@@ -71,10 +71,7 @@
     <t xml:space="preserve">Beheerschema</t>
   </si>
   <si>
-    <t xml:space="preserve">heeftSchema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schema</t>
+    <t xml:space="preserve">schema</t>
   </si>
   <si>
     <t xml:space="preserve">ingangsdatum relatie</t>
@@ -86,55 +83,55 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
+    <t xml:space="preserve">contactDatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voornaam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">achternaam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tussenv.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tussenvoegsel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mailadres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gsm nummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mobielNummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geboortedatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geboorteDatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bedrijfsnaam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanBedrijf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bedrijf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interesse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heeftInteresses</t>
+  </si>
+  <si>
     <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contactDatum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">voornaam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">achternaam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tussenv.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tussenvoegsel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mailadres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gsm nummer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mobielNummer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geboortedatum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geboorteDatum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bedrijfsnaam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vanBedrijf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bedrijf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interesse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heeftInteresses</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -147,10 +144,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;BOOL&quot;e&quot;AN&quot;"/>
-    <numFmt numFmtId="166" formatCode="&quot;BOOL&quot;e&quot;AN&quot;"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -294,7 +290,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -308,10 +304,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -398,7 +390,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -454,19 +446,19 @@
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="F2" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -482,103 +474,103 @@
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="F3" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="F4" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="F5" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -586,32 +578,32 @@
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="F6" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -619,32 +611,32 @@
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="n">
+      <c r="F7" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -652,32 +644,32 @@
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="F8" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -685,32 +677,32 @@
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="F9" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -718,131 +710,131 @@
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="n">
+      <c r="F10" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="n">
+      <c r="F11" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="F12" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="4" t="n">
+      <c r="F13" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -850,32 +842,32 @@
       <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="4" t="n">
+      <c r="F14" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>10</v>
@@ -883,32 +875,32 @@
       <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="4" t="n">
+      <c r="F15" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -916,32 +908,32 @@
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="4" t="n">
+      <c r="F16" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>10</v>
@@ -949,88 +941,44 @@
       <c r="E17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="4" t="n">
+      <c r="F17" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
@@ -1071,10 +1019,10 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
@@ -1082,32 +1030,32 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
@@ -1307,28 +1255,8 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-    </row>
+    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
